--- a/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Сотрудники/Сотрудники ТНС.xlsx
+++ b/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Сотрудники/Сотрудники ТНС.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main\RDP\41П\лебедевааф\Desktop\УП.01 2023 41П Мухин Н.А\2_Основные\Сессия 2\Сотрудники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D7CFE-6ED3-4163-AD76-6951FC22662F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0713B3-94C0-403A-82B9-ACA31415CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="198">
   <si>
     <t>Шилов Вольдемар Степанович</t>
   </si>
@@ -528,6 +528,105 @@
   </si>
   <si>
     <t>IdEmployee</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>nomer</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>\Images\ID1516.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1517.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1518.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1519.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1520.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1521.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1522.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1523.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1524.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1525.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1526.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1527.jfif</t>
+  </si>
+  <si>
+    <t>\Images\ID1528.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1529.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1530.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1531.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1532.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1533.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1534.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1535.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1536.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1537.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1538.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1539.png</t>
+  </si>
+  <si>
+    <t>\Images\ID1540.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1541.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1542.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1543.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1544.jpg</t>
+  </si>
+  <si>
+    <t>\Images\ID1545.jpg</t>
   </si>
 </sst>
 </file>
@@ -544,10 +643,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -557,11 +660,13 @@
     <font>
       <sz val="12"/>
       <name val="EB Garamond"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="EB Garamond"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -832,7 +937,7 @@
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1315,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A588102D-4BCA-4857-92E0-8EAEC36ACD38}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1328,18 +1433,20 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
         <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
       </c>
       <c r="D1" t="s">
         <v>163</v>
@@ -1347,19 +1454,25 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -1367,19 +1480,28 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>-521230454</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -1387,19 +1509,28 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
@@ -1407,19 +1538,28 @@
       <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>
@@ -1427,19 +1567,28 @@
       <c r="E5">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
@@ -1447,19 +1596,28 @@
       <c r="E6">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -1467,19 +1625,28 @@
       <c r="E7">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -1487,19 +1654,28 @@
       <c r="E8">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75">
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -1507,19 +1683,28 @@
       <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75">
+      <c r="J9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>100</v>
@@ -1527,19 +1712,28 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
+      <c r="J10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>103</v>
@@ -1547,19 +1741,28 @@
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
+      <c r="J11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -1567,19 +1770,28 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75">
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>108</v>
@@ -1587,19 +1799,28 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75">
+      <c r="J13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>111</v>
@@ -1607,19 +1828,28 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75">
+      <c r="J14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
       </c>
       <c r="D15" t="s">
         <v>114</v>
@@ -1627,19 +1857,28 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75">
+      <c r="J15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -1647,19 +1886,28 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75">
+      <c r="J16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>120</v>
@@ -1667,19 +1915,28 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75">
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>122</v>
       </c>
       <c r="D18" t="s">
         <v>123</v>
@@ -1687,19 +1944,28 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75">
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C19" t="s">
-        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>126</v>
@@ -1707,19 +1973,28 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75">
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
       </c>
       <c r="D20" t="s">
         <v>129</v>
@@ -1727,19 +2002,28 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75">
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C21" t="s">
-        <v>131</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -1747,19 +2031,28 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75">
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>135</v>
@@ -1767,19 +2060,28 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75">
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
       </c>
       <c r="D23" t="s">
         <v>138</v>
@@ -1787,19 +2089,28 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75">
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
       </c>
       <c r="D24" t="s">
         <v>141</v>
@@ -1807,19 +2118,28 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75">
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>142</v>
       </c>
       <c r="D25" t="s">
         <v>143</v>
@@ -1827,19 +2147,28 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75">
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
@@ -1847,19 +2176,28 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75">
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
@@ -1867,19 +2205,28 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75">
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C28" t="s">
-        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>152</v>
@@ -1887,19 +2234,28 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75">
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18.75">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>153</v>
       </c>
       <c r="D29" t="s">
         <v>154</v>
@@ -1907,19 +2263,28 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75">
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C30" t="s">
-        <v>156</v>
       </c>
       <c r="D30" t="s">
         <v>157</v>
@@ -1927,19 +2292,28 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75">
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>160</v>
@@ -1947,8 +2321,17 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="5:5">
@@ -2108,7 +2491,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEBD3C9-0824-4037-A41A-1993EB9CAA7F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B11"/>
@@ -2209,6 +2592,86 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="7">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="7">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="7">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" ht="18.75">
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
